--- a/comp-rate_2022-01-28.xlsx
+++ b/comp-rate_2022-01-28.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Primarie\Documents\GitHub\FlyCheap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D777B86-8E04-4988-A4AB-598F293C6BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27FEA91-674B-46FA-8765-30323983FAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -704,7 +704,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -744,7 +744,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1828,7 +1828,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0_);[&gt;12]&quot; &quot;" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3316,7 +3316,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0_);[&gt;12]&quot; &quot;" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5092,7 +5092,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0_);[&gt;12]&quot; &quot;" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
